--- a/hotspotlists.xlsx
+++ b/hotspotlists.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="184">
   <si>
     <t>hotspot_name</t>
   </si>
@@ -38,6 +38,9 @@
     <t>email</t>
   </si>
   <si>
+    <t>Currently</t>
+  </si>
+  <si>
     <t>Able Champagne Chicken</t>
   </si>
   <si>
@@ -137,6 +140,12 @@
     <t>11tQLdhjYReDgZZ4MqrLiPWYZPQCKDjEnr5U4MDrG93ybeHU127</t>
   </si>
   <si>
+    <t>Kevin Woods</t>
+  </si>
+  <si>
+    <t>143bHNMztj2zNcJbQagvCTMgmcuJE5hvLYk6j1A24UorNFLnK47</t>
+  </si>
+  <si>
     <t>Curly Stone Mule</t>
   </si>
   <si>
@@ -201,12 +210,6 @@
   </si>
   <si>
     <t>112dKBfx5RhnAZboSKdRLSFaEuWGSFcLfV7ueF5JMNhGAra1av5</t>
-  </si>
-  <si>
-    <t>Kevin Woods</t>
-  </si>
-  <si>
-    <t>143bHNMztj2zNcJbQagvCTMgmcuJE5hvLYk6j1A24UorNFLnK47</t>
   </si>
   <si>
     <t>Owner</t>
@@ -573,7 +576,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -588,6 +591,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
@@ -627,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -641,15 +645,18 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -906,1213 +913,1344 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
+      <c r="G3" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="5"/>
+      <c r="G9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>58</v>
+      <c r="G35" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="1" t="e">
         <v>#N/A</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="8"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="8"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="8"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="8"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1"/>

--- a/hotspotlists.xlsx
+++ b/hotspotlists.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="181">
   <si>
     <t>hotspot_name</t>
   </si>
@@ -38,9 +38,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Currently</t>
-  </si>
-  <si>
     <t>Able Champagne Chicken</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>11HYuNQoP6wgPBe2gSpiV2gpEV72wuDkV8pCbvxVyqd8Y5XrbA2</t>
   </si>
   <si>
-    <t>Chris Hames</t>
+    <t>Chris Haynes</t>
   </si>
   <si>
     <t>13jF8cXHLATCNTSVzM1gFNbNnxZHG3tUow9K5Jz5z7t2y2wHwaG</t>
@@ -150,12 +147,6 @@
   </si>
   <si>
     <t>112siCX6w6xYLSaQfyg2F7BYZUhDYmiZC5nNhDeKkyx7drCegu2N</t>
-  </si>
-  <si>
-    <t>Christian Lynch</t>
-  </si>
-  <si>
-    <t>136jGTg8QivEEk7qGv65RtL6w17Fn9KJEAUCsL7u5zVLxTAJZYf</t>
   </si>
   <si>
     <t>heliumstemmidwest@gmail.com</t>
@@ -576,7 +567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -591,7 +582,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
@@ -631,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -645,18 +635,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -913,1344 +900,1216 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1.0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="1" t="e">
         <v>#N/A</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1.0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1.0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="9"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="9"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="9"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="9"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1"/>

--- a/hotspotlists.xlsx
+++ b/hotspotlists.xlsx
@@ -62,7 +62,7 @@
     <t>11HYuNQoP6wgPBe2gSpiV2gpEV72wuDkV8pCbvxVyqd8Y5XrbA2</t>
   </si>
   <si>
-    <t>Chris Haynes</t>
+    <t>Chris Hames</t>
   </si>
   <si>
     <t>13jF8cXHLATCNTSVzM1gFNbNnxZHG3tUow9K5Jz5z7t2y2wHwaG</t>
